--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/NOTAS PRODUCCION  16-21-OCTUBRE.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/NOTAS PRODUCCION  16-21-OCTUBRE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="    11     SUR       " sheetId="6" r:id="rId6"/>
     <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="33">
   <si>
     <t>Folio-Ticket</t>
   </si>
@@ -112,6 +112,27 @@
   <si>
     <t>P R O D U C C I O N     16- al  21-Oct-2023</t>
   </si>
+  <si>
+    <t>P R O D U C C I O N     23- al  28-Oct-2023</t>
+  </si>
+  <si>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +203,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +230,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -343,12 +389,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -392,24 +553,108 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -417,6 +662,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3846,8 +4097,8 @@
   </sheetPr>
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3859,12 +4110,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="2:6" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="17" t="s">
@@ -4339,14 +4590,12 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C31" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="35">
         <f>SUM(F3:F30)</f>
         <v>608557.34</v>
       </c>
@@ -4370,8 +4619,7 @@
       <c r="F34" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C31:D31"/>
+  <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4384,276 +4632,300 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:E34"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G36" sqref="G35:G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="2:5" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+    </row>
+    <row r="2" spans="2:11" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="68" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="69"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="39">
+      <c r="G3" s="42"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="71">
         <v>191</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="74">
         <v>4816.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="43">
+      <c r="G4" s="42"/>
+      <c r="H4" s="71">
+        <v>241</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="71">
         <v>193</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="74">
         <v>12168</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="43">
+      <c r="G5" s="42"/>
+      <c r="H5" s="71">
+        <v>242</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="74">
+        <v>19021</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="71">
         <v>227</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="74">
         <v>632</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33">
+      <c r="G6" s="42"/>
+      <c r="H6" s="71">
+        <v>281</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="74">
+        <v>3899.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33">
+      <c r="G7" s="42"/>
+      <c r="H7" s="71">
+        <v>319</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="74">
+        <v>17746</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B31" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34" t="s">
+      <c r="G8" s="42"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="37">
-        <f>SUM(E3:E30)</f>
+      <c r="E9" s="61">
+        <f>SUM(E4:E8)</f>
         <v>17616.5</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="G10" s="42"/>
+      <c r="K10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="G11" s="42"/>
+      <c r="J11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="41">
+        <f>SUM(K4:K10)</f>
+        <v>40666.800000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="G12" s="42"/>
+      <c r="K12" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="55"/>
+      <c r="G13" s="42"/>
+      <c r="K13" s="43">
+        <f>SUM(K12:K12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="G14" s="42"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="G15" s="42"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.19" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.35433070866141736" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4662,348 +4934,533 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:E34"/>
+  <dimension ref="A2:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="38" t="s">
+    <row r="2" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="2:5" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+    </row>
+    <row r="3" spans="2:11" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E3" s="65" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="9">
+      <c r="G3" s="42"/>
+      <c r="H3" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="86">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E5" s="74">
         <v>29284.799999999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="G5" s="42"/>
+      <c r="H5" s="86">
+        <v>256</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="74">
+        <v>32170.49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="86">
         <v>21</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="74">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="G6" s="42"/>
+      <c r="H6" s="86">
+        <v>275</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="74">
+        <v>21244</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="86">
         <v>22</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="74">
         <v>3379.5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
+      <c r="G7" s="42"/>
+      <c r="H7" s="86">
+        <v>283</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="74">
+        <v>42897.599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="86">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="74">
         <v>24624</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
+      <c r="G8" s="42"/>
+      <c r="H8" s="86">
+        <v>291</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="74">
+        <v>65422</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="86">
         <v>27</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="74">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+      <c r="G9" s="42"/>
+      <c r="H9" s="86">
+        <v>300</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="74">
+        <v>54637.19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="86">
         <v>184</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="74">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="G10" s="42"/>
+      <c r="H10" s="86">
+        <v>317</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="74">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="86">
         <v>192</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="74">
         <v>10924.8</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="G11" s="42"/>
+      <c r="H11" s="86">
+        <v>326</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="74">
+        <v>3942.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="86">
         <v>204</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="74">
         <v>40432.6</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="G12" s="42"/>
+      <c r="H12" s="86">
+        <v>330</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="74">
+        <v>64904</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="86">
         <v>213</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="74">
         <v>28496</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="G13" s="42"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="86">
         <v>215</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="74">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
+      <c r="G14" s="42"/>
+      <c r="K14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="86">
         <v>219</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="74">
         <v>79614.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="G15" s="42"/>
+      <c r="K15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="86">
         <v>221</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="74">
         <v>937.08</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33">
+      <c r="G16" s="42"/>
+      <c r="J16" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="41">
+        <f>SUM(K5:K15)</f>
+        <v>285517.68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="2:7" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33">
+      <c r="G30" s="42"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B31" s="35" t="s">
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34" t="s">
+      <c r="C32" s="81"/>
+      <c r="D32" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="37">
-        <f>SUM(E3:E30)</f>
+      <c r="E32" s="83">
+        <f>SUM(E4:E31)</f>
         <v>218293.28</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B31:C31"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5012,276 +5469,326 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:E34"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="38" t="s">
+    <row r="2" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="2:5" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+    </row>
+    <row r="3" spans="2:11" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C3" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D3" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E3" s="68" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="G3" s="42"/>
+      <c r="H3" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="86">
         <v>18</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="74">
         <v>5275</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
+      <c r="G5" s="42"/>
+      <c r="H5" s="86">
+        <v>257</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="74">
+        <v>4425.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="86">
         <v>201</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E6" s="74">
         <v>6476</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="G6" s="42"/>
+      <c r="H6" s="86">
+        <v>262</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="74">
+        <v>926.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="86">
         <v>234</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="74">
         <v>1242.5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33">
+      <c r="G7" s="42"/>
+      <c r="H7" s="86">
+        <v>279</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="74">
+        <v>3029.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33">
+      <c r="G8" s="42"/>
+      <c r="H8" s="86">
+        <v>282</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="74">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="92"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="96">
+        <f>SUM(E5:E8)</f>
+        <v>12993.5</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="86">
+        <v>295</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="74">
+        <v>308.95999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="92"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="86">
+        <v>303</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="74">
+        <v>3263.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="92"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="86">
+        <v>316</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="74">
+        <v>3063.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="92"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="86">
+        <v>318</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="74">
+        <v>1225.1300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="92"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="G13" s="42"/>
+      <c r="K13" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B31" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34" t="s">
+    <row r="14" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="92"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="G14" s="42"/>
+      <c r="K14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="92"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="G15" s="42"/>
+      <c r="J15" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="37">
-        <f>SUM(E3:E30)</f>
-        <v>12993.5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="K15" s="94">
+        <f>SUM(K5:K14)</f>
+        <v>16541.989999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.27559055118110237" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
